--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_8.xlsx
@@ -478,311 +478,311 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_21</t>
+          <t>model_3_8_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.766099458836681</v>
+        <v>0.1908480773235842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4285947710069737</v>
+        <v>-5.370626633474223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2009366435671742</v>
+        <v>0.2383582481846868</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4134861943315731</v>
+        <v>-0.04781911824640628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2588589787483215</v>
+        <v>0.8954926729202271</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6982882618904114</v>
+        <v>1.32693088054657</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1466568559408188</v>
+        <v>2.265351057052612</v>
       </c>
       <c r="I2" t="n">
-        <v>0.438696950674057</v>
+        <v>1.768540382385254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_24</t>
+          <t>model_3_8_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7661403459462859</v>
+        <v>0.2354883899290166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4296279106645612</v>
+        <v>-4.378469061929707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1939618465247284</v>
+        <v>0.2635466654692527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4135753214275947</v>
+        <v>0.03788932344492202</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2588137090206146</v>
+        <v>0.8460890650749207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6970256567001343</v>
+        <v>1.120275497436523</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1479369848966599</v>
+        <v>2.190433263778687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4386302828788757</v>
+        <v>1.623879075050354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_22</t>
+          <t>model_3_8_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7663171884355404</v>
+        <v>0.2439473481137765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4300500106347074</v>
+        <v>-4.357824605184342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1989811295400227</v>
+        <v>0.2841279563396467</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4145190807826267</v>
+        <v>0.05630546169512374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.258618026971817</v>
+        <v>0.8367274403572083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.696509838104248</v>
+        <v>1.115975618362427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1470157653093338</v>
+        <v>2.129218339920044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4379243850708008</v>
+        <v>1.592795610427856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_23</t>
+          <t>model_3_8_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7663257364623748</v>
+        <v>0.2669798007701862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4301971619226683</v>
+        <v>-3.824226369893614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1981954486929842</v>
+        <v>0.2952071693408393</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4145557172791106</v>
+        <v>0.1003548196452629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2586085498332977</v>
+        <v>0.8112373352050781</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6963300704956055</v>
+        <v>1.004832863807678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1471599638462067</v>
+        <v>2.096265316009521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4378969669342041</v>
+        <v>1.518447875976562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_19</t>
+          <t>model_3_8_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7669327962644905</v>
+        <v>0.2724210062392776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4330070598303294</v>
+        <v>-3.724204649415809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2041863214053895</v>
+        <v>0.2961485522386552</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4176776032003571</v>
+        <v>0.1076697171542496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2579367160797119</v>
+        <v>0.8052155375480652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6928961873054504</v>
+        <v>0.9839995503425598</v>
       </c>
       <c r="H6" t="n">
-        <v>0.146060436964035</v>
+        <v>2.093465566635132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.435561865568161</v>
+        <v>1.506101608276367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_20</t>
+          <t>model_3_8_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7670747522774221</v>
+        <v>0.2727459020257459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4345133408716391</v>
+        <v>-3.678669592919775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1984670939475708</v>
+        <v>0.291611490644733</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4183204884412665</v>
+        <v>0.1068824569137503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2577796280384064</v>
+        <v>0.8048559427261353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6910554766654968</v>
+        <v>0.9745149612426758</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1471101194620132</v>
+        <v>2.10696005821228</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4350810348987579</v>
+        <v>1.5074303150177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_3</t>
+          <t>model_3_8_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7671875209369016</v>
+        <v>0.2728525650282257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42719436117663</v>
+        <v>-3.662827849169005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3306372229258514</v>
+        <v>0.3331934738140522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4272521362384831</v>
+        <v>0.1423999338439906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2576548159122467</v>
+        <v>0.80473792552948</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6999996900558472</v>
+        <v>0.9712153673171997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1228521466255188</v>
+        <v>1.983282685279846</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4284003674983978</v>
+        <v>1.447482943534851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_18</t>
+          <t>model_3_8_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.767486497936172</v>
+        <v>0.2804438225772318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4357727095793534</v>
+        <v>-3.31453555688983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2081840894721119</v>
+        <v>0.2798103824674558</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4205316250883445</v>
+        <v>0.1208860620738398</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2573239207267761</v>
+        <v>0.7963365912437439</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6895164251327515</v>
+        <v>0.8986698985099792</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1453266888856888</v>
+        <v>2.142060041427612</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4334271550178528</v>
+        <v>1.483794569969177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_17</t>
+          <t>model_3_8_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7686875053912462</v>
+        <v>0.2821842076117518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4419022612961838</v>
+        <v>-3.328947645765955</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2132437452278833</v>
+        <v>0.2859202143187868</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4264175759500816</v>
+        <v>0.1250114755122707</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2559947669506073</v>
+        <v>0.7944105863571167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6820257902145386</v>
+        <v>0.901671826839447</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1443980634212494</v>
+        <v>2.123887538909912</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4290245771408081</v>
+        <v>1.476831555366516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_5</t>
+          <t>model_3_8_21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7689133332996645</v>
+        <v>0.2865571798602513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4393174359114603</v>
+        <v>-3.266596800128108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2711403859350747</v>
+        <v>0.2916547150039379</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4308672938146337</v>
+        <v>0.1338402949767732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2557448446750641</v>
+        <v>0.7895709276199341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6851845979690552</v>
+        <v>0.8886849284172058</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1337719559669495</v>
+        <v>2.106831550598145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4256963133811951</v>
+        <v>1.461930155754089</v>
       </c>
     </row>
     <row r="12">
@@ -792,276 +792,276 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7689354803714369</v>
+        <v>0.2898309803412343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4421654086863547</v>
+        <v>-3.262252133358104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2239128947634212</v>
+        <v>0.3016898018281183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4278770465274121</v>
+        <v>0.1424458356052615</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2557203471660614</v>
+        <v>0.7859477996826172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6817042827606201</v>
+        <v>0.8877799510955811</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1424399018287659</v>
+        <v>2.07698392868042</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4279329776763916</v>
+        <v>1.447405457496643</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_4</t>
+          <t>model_3_8_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7692820624622358</v>
+        <v>0.2930134072535455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4424610325515509</v>
+        <v>-3.050777075306376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2666874106426625</v>
+        <v>0.2926673344308377</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4330728657619174</v>
+        <v>0.1487802378149672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2553367912769318</v>
+        <v>0.7824258804321289</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6813428997993469</v>
+        <v>0.8437319993972778</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1345892399549484</v>
+        <v>2.103819370269775</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4240466356277466</v>
+        <v>1.436714053153992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_15</t>
+          <t>model_3_8_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7695155562347018</v>
+        <v>0.2930903140445161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445013430258786</v>
+        <v>-3.128360438395145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2272585561457373</v>
+        <v>0.2976389055138378</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4307273042169053</v>
+        <v>0.1478332991192627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2550783753395081</v>
+        <v>0.7823407053947449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.678223729133606</v>
+        <v>0.8598917126655579</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1418258547782898</v>
+        <v>2.089032649993896</v>
       </c>
       <c r="I14" t="n">
-        <v>0.425801008939743</v>
+        <v>1.438312292098999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_10</t>
+          <t>model_3_8_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7697765696343584</v>
+        <v>0.2952509681982877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4441016348756253</v>
+        <v>-2.609081402137864</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2498018294208901</v>
+        <v>0.3061436077586851</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4325418153792987</v>
+        <v>0.1888120375983362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2547895014286041</v>
+        <v>0.7799494862556458</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6793380379676819</v>
+        <v>0.7517316341400146</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1376883387565613</v>
+        <v>2.063736915588379</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4244438111782074</v>
+        <v>1.369147300720215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_14</t>
+          <t>model_3_8_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7699002812590157</v>
+        <v>0.2955455922617645</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4469035607558312</v>
+        <v>-3.079243365979237</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2295660581728983</v>
+        <v>0.3018603962823707</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4326286024993971</v>
+        <v>0.1545440373503043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2546525895595551</v>
+        <v>0.7796234488487244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.67591392993927</v>
+        <v>0.8496611714363098</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1414023339748383</v>
+        <v>2.076476573944092</v>
       </c>
       <c r="I16" t="n">
-        <v>0.424378901720047</v>
+        <v>1.426985740661621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_13</t>
+          <t>model_3_8_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7700322043298815</v>
+        <v>0.2955993759694669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4474069753622921</v>
+        <v>-3.114710845798736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2315785093470805</v>
+        <v>0.303051290960104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4332960745241727</v>
+        <v>0.1532142489740227</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2545065879821777</v>
+        <v>0.7795639634132385</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6752986907958984</v>
+        <v>0.8570486903190613</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1410329788923264</v>
+        <v>2.072934627532959</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4238796830177307</v>
+        <v>1.429230213165283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_12</t>
+          <t>model_3_8_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.770110065131727</v>
+        <v>0.3023975863066404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4476843818039578</v>
+        <v>-2.882974775947871</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2329981092008037</v>
+        <v>0.3023685598617565</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43370032613139</v>
+        <v>0.1677871359561088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2544204294681549</v>
+        <v>0.7720402479171753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6749597787857056</v>
+        <v>0.8087806105613708</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1407724320888519</v>
+        <v>2.074965238571167</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4235773086547852</v>
+        <v>1.404633641242981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_11</t>
+          <t>model_3_8_3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.770187921512385</v>
+        <v>0.3429506295188531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4479110697119525</v>
+        <v>-0.9317797868472495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23487634466603</v>
+        <v>0.3628248904556325</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4341132431227477</v>
+        <v>0.3454001804179606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2543342709541321</v>
+        <v>0.7271600365638733</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6746826767921448</v>
+        <v>0.4023683369159698</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1404277086257935</v>
+        <v>1.895149946212769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4232684671878815</v>
+        <v>1.10485303401947</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_9</t>
+          <t>model_3_8_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7705040680755354</v>
+        <v>0.3501248391675685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4476381977509097</v>
+        <v>-0.797415271208046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2542220544137158</v>
+        <v>0.3666090603167635</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4361113165313971</v>
+        <v>0.3573161421307254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2539843916893005</v>
+        <v>0.7192202806472778</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6750161647796631</v>
+        <v>0.3743816614151001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1368770748376846</v>
+        <v>1.883894681930542</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4217739701271057</v>
+        <v>1.084740877151489</v>
       </c>
     </row>
     <row r="21">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7705563265223833</v>
+        <v>0.3784913497999721</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4472273500097098</v>
+        <v>-0.6611401007012438</v>
       </c>
       <c r="D21" t="n">
-        <v>0.264170083284785</v>
+        <v>0.4020321315112625</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4369039819824989</v>
+        <v>0.3955948321387033</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2539265155792236</v>
+        <v>0.6878269910812378</v>
       </c>
       <c r="G21" t="n">
-        <v>0.675518274307251</v>
+        <v>0.3459970653057098</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1350512504577637</v>
+        <v>1.778535842895508</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4211810529232025</v>
+        <v>1.020133018493652</v>
       </c>
     </row>
     <row r="22">
@@ -1102,59 +1102,59 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7707992614341912</v>
+        <v>0.3788672535019445</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4489470387268295</v>
+        <v>-0.658928622491235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2594906299696391</v>
+        <v>0.4000058244374012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4378513051311429</v>
+        <v>0.3940589936573231</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2536576688289642</v>
+        <v>0.6874108910560608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6734166741371155</v>
+        <v>0.3455364406108856</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1359100937843323</v>
+        <v>1.784562706947327</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4204724729061127</v>
+        <v>1.022725224494934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_8</t>
+          <t>model_3_8_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7708242658773983</v>
+        <v>0.3952463933010676</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4490647569038372</v>
+        <v>-0.5501009022239085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2590300488271848</v>
+        <v>0.5440041537596411</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4379007515499911</v>
+        <v>0.5205828878603393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2536299824714661</v>
+        <v>0.6692840456962585</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6732728481292725</v>
+        <v>0.322868824005127</v>
       </c>
       <c r="H23" t="n">
-        <v>0.135994628071785</v>
+        <v>1.356268405914307</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4204355180263519</v>
+        <v>0.8091744780540466</v>
       </c>
     </row>
     <row r="24">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7727629425608918</v>
+        <v>0.3968947703512651</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4632219634668128</v>
+        <v>0.02949790205187164</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3262684210740423</v>
+        <v>0.4563826056021152</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4579096340985065</v>
+        <v>0.4857873378694068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2514844536781311</v>
+        <v>0.6674597859382629</v>
       </c>
       <c r="G24" t="n">
-        <v>0.655971884727478</v>
+        <v>0.2021448314189911</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1236539781093597</v>
+        <v>1.616881132125854</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4054693877696991</v>
+        <v>0.8679034113883972</v>
       </c>
     </row>
     <row r="25">
@@ -1195,59 +1195,59 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7826554772729006</v>
+        <v>0.4055680631786877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5247882391702117</v>
+        <v>-0.075005731798792</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4145760583177452</v>
+        <v>0.4968529603873086</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5213591841968689</v>
+        <v>0.5125209519313862</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2405363470315933</v>
+        <v>0.657861053943634</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5807345509529114</v>
+        <v>0.2239117920398712</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1074463427066803</v>
+        <v>1.49651026725769</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3580107688903809</v>
+        <v>0.8227816820144653</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_0</t>
+          <t>model_3_8_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7863706304853488</v>
+        <v>0.4155175326974087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5466077645318388</v>
+        <v>0.2927537394549828</v>
       </c>
       <c r="D26" t="n">
-        <v>0.438572759090513</v>
+        <v>0.4466925345886276</v>
       </c>
       <c r="E26" t="n">
-        <v>0.543003122168269</v>
+        <v>0.4949509303066659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2364247739315033</v>
+        <v>0.6468499302864075</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5540699362754822</v>
+        <v>0.1473115533590317</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1030420958995819</v>
+        <v>1.645702362060547</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3418216705322266</v>
+        <v>0.8524368405342102</v>
       </c>
     </row>
   </sheetData>
